--- a/Code/R/Magnan/PerfSearch_RF_Balanced_SvmRFE2_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_Balanced_SvmRFE2_comb.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Description" sheetId="6" r:id="rId1"/>
-    <sheet name="Tenfold_Coarse" sheetId="21" r:id="rId2"/>
-    <sheet name="Tenfold_MidGrain" sheetId="20" r:id="rId3"/>
-    <sheet name="Tenfold_Avg" sheetId="13" r:id="rId4"/>
-    <sheet name="Tenfold_SD" sheetId="14" r:id="rId5"/>
+    <sheet name="Tenfold_Coarse" sheetId="21" r:id="rId1"/>
+    <sheet name="Tenfold_MidGrain" sheetId="20" r:id="rId2"/>
+    <sheet name="Tenfold_Avg" sheetId="13" r:id="rId3"/>
+    <sheet name="Tenfold_SD" sheetId="14" r:id="rId4"/>
+    <sheet name="Jackknife" sheetId="22" r:id="rId5"/>
     <sheet name="seed_10" sheetId="15" r:id="rId6"/>
     <sheet name="seed_20" sheetId="16" r:id="rId7"/>
     <sheet name="seed_30" sheetId="17" r:id="rId8"/>
@@ -19,23 +19,19 @@
     <sheet name="seed_50" sheetId="19" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Description!$B$1:$I$66</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tenfold_Avg!$A$1:$K$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tenfold_Avg!$A$1:$K$61</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="18">
   <si>
     <t>MCC</t>
   </si>
   <si>
     <t>AUCROC</t>
-  </si>
-  <si>
-    <t>Threshold</t>
   </si>
   <si>
     <t>nF</t>
@@ -50,25 +46,7 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>Feature Ranking</t>
-  </si>
-  <si>
-    <t>ff_SvmRFE2_heu_comb</t>
-  </si>
-  <si>
     <t>Precision</t>
-  </si>
-  <si>
-    <t>Learner</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>TrainingSet</t>
-  </si>
-  <si>
-    <t>Balanced</t>
   </si>
   <si>
     <t>AUCPR</t>
@@ -122,21 +100,6 @@
   </si>
   <si>
     <t>BEST(AUPR)</t>
-  </si>
-  <si>
-    <t>CV type</t>
-  </si>
-  <si>
-    <t>Tenfold_Avg</t>
-  </si>
-  <si>
-    <t>Tenfold_Mid</t>
-  </si>
-  <si>
-    <t>ff_SvmRFE_heu_comb</t>
-  </si>
-  <si>
-    <t>Single run with seed:10</t>
   </si>
 </sst>
 </file>
@@ -628,11 +591,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1117,23 +1077,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="63706240"/>
-        <c:axId val="63707776"/>
+        <c:axId val="60617088"/>
+        <c:axId val="60619392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63706240"/>
+        <c:axId val="60617088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63707776"/>
+        <c:crossAx val="60619392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63707776"/>
+        <c:axId val="60619392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,20 +1101,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63706240"/>
+        <c:crossAx val="60617088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1803,23 +1762,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80261120"/>
-        <c:axId val="80262656"/>
+        <c:axId val="89463808"/>
+        <c:axId val="101414016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80261120"/>
+        <c:axId val="89463808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80262656"/>
+        <c:crossAx val="101414016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80262656"/>
+        <c:axId val="101414016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1827,20 +1786,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80261120"/>
+        <c:crossAx val="89463808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1850,9 +1808,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2254,11 +2210,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80913536"/>
-        <c:axId val="80915072"/>
+        <c:axId val="59650432"/>
+        <c:axId val="59651968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80913536"/>
+        <c:axId val="59650432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -2267,12 +2223,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80915072"/>
+        <c:crossAx val="59651968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80915072"/>
+        <c:axId val="59651968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000064"/>
@@ -2283,20 +2239,19 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80913536"/>
+        <c:crossAx val="59650432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5486,23 +5441,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="82731776"/>
-        <c:axId val="82733312"/>
+        <c:axId val="60169600"/>
+        <c:axId val="60187776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82731776"/>
+        <c:axId val="60169600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82733312"/>
+        <c:crossAx val="60187776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82733312"/>
+        <c:axId val="60187776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5510,7 +5465,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82731776"/>
+        <c:crossAx val="60169600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5522,7 +5477,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5934,34 +5889,34 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80287616"/>
-        <c:axId val="80289152"/>
+        <c:axId val="60436864"/>
+        <c:axId val="60438400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80287616"/>
+        <c:axId val="60436864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80289152"/>
+        <c:crossAx val="60438400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80289152"/>
+        <c:axId val="60438400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.60000000000000053"/>
-          <c:min val="0.30000000000000027"/>
+          <c:max val="0.60000000000000064"/>
+          <c:min val="0.30000000000000032"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80287616"/>
+        <c:crossAx val="60436864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5973,7 +5928,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6385,23 +6340,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80309248"/>
-        <c:axId val="80319232"/>
+        <c:axId val="60458496"/>
+        <c:axId val="60460032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80309248"/>
+        <c:axId val="60458496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80319232"/>
+        <c:crossAx val="60460032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80319232"/>
+        <c:axId val="60460032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6409,7 +6364,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80309248"/>
+        <c:crossAx val="60458496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6421,7 +6376,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6833,23 +6788,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80334848"/>
-        <c:axId val="80336384"/>
+        <c:axId val="60467840"/>
+        <c:axId val="60481920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80334848"/>
+        <c:axId val="60467840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80336384"/>
+        <c:crossAx val="60481920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80336384"/>
+        <c:axId val="60481920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6857,7 +6812,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80334848"/>
+        <c:crossAx val="60467840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6869,7 +6824,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7395,83 +7350,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2">
+        <v>0.87858826437114301</v>
+      </c>
+      <c r="D2">
+        <v>0.87064814230132004</v>
+      </c>
+      <c r="E2">
+        <v>0.796875</v>
+      </c>
+      <c r="F2">
+        <v>0.80381944444444398</v>
+      </c>
+      <c r="G2">
+        <v>0.78993055555555602</v>
+      </c>
+      <c r="H2">
+        <v>0.79280821917808197</v>
+      </c>
+      <c r="I2">
+        <v>0.79827586206896595</v>
+      </c>
+      <c r="J2">
+        <v>0.59380727584058102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3">
+        <v>1500</v>
+      </c>
+      <c r="C3">
+        <v>0.87610466097607997</v>
+      </c>
+      <c r="D3">
+        <v>0.87088785545637404</v>
+      </c>
+      <c r="E3">
+        <v>0.78732638888888895</v>
+      </c>
+      <c r="F3">
+        <v>0.80381944444444398</v>
+      </c>
+      <c r="G3">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="H3">
+        <v>0.77815126050420202</v>
+      </c>
+      <c r="I3">
+        <v>0.79077711357813796</v>
+      </c>
+      <c r="J3">
+        <v>0.57496566824957096</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2500</v>
+      </c>
+      <c r="C4">
+        <v>0.86868248456790198</v>
+      </c>
+      <c r="D4">
+        <v>0.862864597014948</v>
+      </c>
+      <c r="E4">
+        <v>0.78559027777777801</v>
+      </c>
+      <c r="F4">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="G4">
+        <v>0.77951388888888895</v>
+      </c>
+      <c r="H4">
+        <v>0.78216123499142398</v>
+      </c>
+      <c r="I4">
+        <v>0.786885245901639</v>
+      </c>
+      <c r="J4">
+        <v>0.57122273905850296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3500</v>
+      </c>
+      <c r="C5">
+        <v>0.86205150462963098</v>
+      </c>
+      <c r="D5">
+        <v>0.85672728618601501</v>
+      </c>
+      <c r="E5">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="F5">
+        <v>0.79513888888888895</v>
+      </c>
+      <c r="G5">
+        <v>0.75347222222222199</v>
+      </c>
+      <c r="H5">
+        <v>0.76333333333333298</v>
+      </c>
+      <c r="I5">
+        <v>0.77891156462584998</v>
+      </c>
+      <c r="J5">
+        <v>0.549087957016964</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4500</v>
+      </c>
+      <c r="C6">
+        <v>0.85050003616898195</v>
+      </c>
+      <c r="D6">
+        <v>0.84493480108346797</v>
+      </c>
+      <c r="E6">
+        <v>0.75954861111111105</v>
+      </c>
+      <c r="F6">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="G6">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="H6">
+        <v>0.75210792580101204</v>
+      </c>
+      <c r="I6">
+        <v>0.763045337895637</v>
+      </c>
+      <c r="J6">
+        <v>0.51932345494585197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5500</v>
+      </c>
+      <c r="C7">
+        <v>0.84236050829475295</v>
+      </c>
+      <c r="D7">
+        <v>0.83530049876066004</v>
+      </c>
+      <c r="E7">
+        <v>0.75434027777777801</v>
+      </c>
+      <c r="F7">
+        <v>0.78298611111111105</v>
+      </c>
+      <c r="G7">
+        <v>0.72569444444444398</v>
+      </c>
+      <c r="H7">
+        <v>0.74055829228242998</v>
+      </c>
+      <c r="I7">
+        <v>0.76118143459915599</v>
+      </c>
+      <c r="J7">
+        <v>0.50951744635033502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6500</v>
+      </c>
+      <c r="C8">
+        <v>0.84119556568287202</v>
+      </c>
+      <c r="D8">
+        <v>0.83216631145194198</v>
+      </c>
+      <c r="E8">
+        <v>0.75</v>
+      </c>
+      <c r="F8">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="G8">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="H8">
+        <v>0.74161073825503399</v>
+      </c>
+      <c r="I8">
+        <v>0.75426621160409602</v>
+      </c>
+      <c r="J8">
+        <v>0.50030168099379302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
+      <c r="B9">
+        <v>7500</v>
+      </c>
+      <c r="C9">
+        <v>0.83400698061342804</v>
+      </c>
+      <c r="D9">
+        <v>0.82640139211326902</v>
+      </c>
+      <c r="E9">
+        <v>0.74565972222222199</v>
+      </c>
+      <c r="F9">
+        <v>0.76909722222222199</v>
+      </c>
+      <c r="G9">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="H9">
+        <v>0.73466003316749595</v>
+      </c>
+      <c r="I9">
+        <v>0.75148430873621697</v>
+      </c>
+      <c r="J9">
+        <v>0.49186011526891898</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7486,32 +7661,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9442,40 +9617,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9484,31 +9659,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>0.87858826437114301</v>
+        <v>0.85181266878857798</v>
       </c>
       <c r="D2">
-        <v>0.87064814230132004</v>
+        <v>0.84172647378369403</v>
       </c>
       <c r="E2">
-        <v>0.796875</v>
+        <v>0.76996527777777801</v>
       </c>
       <c r="F2">
-        <v>0.80381944444444398</v>
+        <v>0.77604166666666696</v>
       </c>
       <c r="G2">
-        <v>0.78993055555555602</v>
+        <v>0.76388888888888895</v>
       </c>
       <c r="H2">
-        <v>0.79280821917808197</v>
+        <v>0.76672384219554002</v>
       </c>
       <c r="I2">
-        <v>0.79827586206896595</v>
+        <v>0.77135461604831701</v>
       </c>
       <c r="J2">
-        <v>0.59380727584058102</v>
+        <v>0.53997043114648802</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9516,31 +9691,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="C3">
-        <v>0.87610466097607997</v>
+        <v>0.86539713541666596</v>
       </c>
       <c r="D3">
-        <v>0.87088785545637404</v>
+        <v>0.86333467179162005</v>
       </c>
       <c r="E3">
-        <v>0.78732638888888895</v>
+        <v>0.78125</v>
       </c>
       <c r="F3">
-        <v>0.80381944444444398</v>
+        <v>0.79166666666666696</v>
       </c>
       <c r="G3">
         <v>0.77083333333333304</v>
       </c>
       <c r="H3">
-        <v>0.77815126050420202</v>
+        <v>0.77551020408163296</v>
       </c>
       <c r="I3">
-        <v>0.79077711357813796</v>
+        <v>0.78350515463917503</v>
       </c>
       <c r="J3">
-        <v>0.57496566824957096</v>
+        <v>0.56262211006330798</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9548,31 +9723,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="C4">
-        <v>0.86868248456790198</v>
+        <v>0.87214415750385899</v>
       </c>
       <c r="D4">
-        <v>0.862864597014948</v>
+        <v>0.86606585618733301</v>
       </c>
       <c r="E4">
         <v>0.78559027777777801</v>
       </c>
       <c r="F4">
-        <v>0.79166666666666696</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G4">
-        <v>0.77951388888888895</v>
+        <v>0.76909722222222199</v>
       </c>
       <c r="H4">
-        <v>0.78216123499142398</v>
+        <v>0.77647058823529402</v>
       </c>
       <c r="I4">
-        <v>0.786885245901639</v>
+        <v>0.78906917164816404</v>
       </c>
       <c r="J4">
-        <v>0.57122273905850296</v>
+        <v>0.57149155545048003</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9580,31 +9755,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3500</v>
+        <v>400</v>
       </c>
       <c r="C5">
-        <v>0.86205150462963098</v>
+        <v>0.882529176311729</v>
       </c>
       <c r="D5">
-        <v>0.85672728618601501</v>
+        <v>0.87956695949327501</v>
       </c>
       <c r="E5">
-        <v>0.77430555555555602</v>
+        <v>0.80034722222222199</v>
       </c>
       <c r="F5">
-        <v>0.79513888888888895</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="G5">
-        <v>0.75347222222222199</v>
+        <v>0.79861111111111105</v>
       </c>
       <c r="H5">
-        <v>0.76333333333333298</v>
+        <v>0.79930795847750902</v>
       </c>
       <c r="I5">
-        <v>0.77891156462584998</v>
+        <v>0.80069324090121297</v>
       </c>
       <c r="J5">
-        <v>0.549087957016964</v>
+        <v>0.60069806556156002</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9612,31 +9787,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4500</v>
+        <v>500</v>
       </c>
       <c r="C6">
-        <v>0.85050003616898195</v>
+        <v>0.88003653067129395</v>
       </c>
       <c r="D6">
-        <v>0.84493480108346797</v>
+        <v>0.86880182535679795</v>
       </c>
       <c r="E6">
-        <v>0.75954861111111105</v>
+        <v>0.80208333333333304</v>
       </c>
       <c r="F6">
-        <v>0.77430555555555602</v>
+        <v>0.8125</v>
       </c>
       <c r="G6">
-        <v>0.74479166666666696</v>
+        <v>0.79166666666666696</v>
       </c>
       <c r="H6">
-        <v>0.75210792580101204</v>
+        <v>0.79591836734693899</v>
       </c>
       <c r="I6">
-        <v>0.763045337895637</v>
+        <v>0.80412371134020599</v>
       </c>
       <c r="J6">
-        <v>0.51932345494585197</v>
+        <v>0.60429782191984904</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9644,31 +9819,31 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5500</v>
+        <v>600</v>
       </c>
       <c r="C7">
-        <v>0.84236050829475295</v>
+        <v>0.87847222222222499</v>
       </c>
       <c r="D7">
-        <v>0.83530049876066004</v>
+        <v>0.86566513663507305</v>
       </c>
       <c r="E7">
-        <v>0.75434027777777801</v>
+        <v>0.79340277777777801</v>
       </c>
       <c r="F7">
-        <v>0.78298611111111105</v>
+        <v>0.80555555555555602</v>
       </c>
       <c r="G7">
-        <v>0.72569444444444398</v>
+        <v>0.78125</v>
       </c>
       <c r="H7">
-        <v>0.74055829228242998</v>
+        <v>0.78644067796610195</v>
       </c>
       <c r="I7">
-        <v>0.76118143459915599</v>
+        <v>0.79588336192109799</v>
       </c>
       <c r="J7">
-        <v>0.50951744635033502</v>
+        <v>0.58697896302504604</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -9676,31 +9851,31 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6500</v>
+        <v>700</v>
       </c>
       <c r="C8">
-        <v>0.84119556568287202</v>
+        <v>0.87998981240355301</v>
       </c>
       <c r="D8">
-        <v>0.83216631145194198</v>
+        <v>0.87134975511702395</v>
       </c>
       <c r="E8">
-        <v>0.75</v>
+        <v>0.79427083333333304</v>
       </c>
       <c r="F8">
-        <v>0.76736111111111105</v>
+        <v>0.80381944444444398</v>
       </c>
       <c r="G8">
-        <v>0.73263888888888895</v>
+        <v>0.78472222222222199</v>
       </c>
       <c r="H8">
-        <v>0.74161073825503399</v>
+        <v>0.78875638841567297</v>
       </c>
       <c r="I8">
-        <v>0.75426621160409602</v>
+        <v>0.79621668099742005</v>
       </c>
       <c r="J8">
-        <v>0.50030168099379302</v>
+        <v>0.58864901775065204</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9708,31 +9883,255 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7500</v>
+        <v>800</v>
       </c>
       <c r="C9">
-        <v>0.83400698061342804</v>
+        <v>0.878256715374231</v>
       </c>
       <c r="D9">
-        <v>0.82640139211326902</v>
+        <v>0.866026498128463</v>
       </c>
       <c r="E9">
-        <v>0.74565972222222199</v>
+        <v>0.79774305555555602</v>
       </c>
       <c r="F9">
-        <v>0.76909722222222199</v>
+        <v>0.81597222222222199</v>
       </c>
       <c r="G9">
-        <v>0.72222222222222199</v>
+        <v>0.77951388888888895</v>
       </c>
       <c r="H9">
-        <v>0.73466003316749595</v>
+        <v>0.78726968174204404</v>
       </c>
       <c r="I9">
-        <v>0.75148430873621697</v>
+        <v>0.80136402387041805</v>
       </c>
       <c r="J9">
-        <v>0.49186011526891898</v>
+        <v>0.595882269155384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>900</v>
+      </c>
+      <c r="C10">
+        <v>0.87684009693287102</v>
+      </c>
+      <c r="D10">
+        <v>0.86992160858807199</v>
+      </c>
+      <c r="E10">
+        <v>0.796875</v>
+      </c>
+      <c r="F10">
+        <v>0.80381944444444398</v>
+      </c>
+      <c r="G10">
+        <v>0.78993055555555602</v>
+      </c>
+      <c r="H10">
+        <v>0.79280821917808197</v>
+      </c>
+      <c r="I10">
+        <v>0.79827586206896595</v>
+      </c>
+      <c r="J10">
+        <v>0.59380727584058102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1000</v>
+      </c>
+      <c r="C11">
+        <v>0.87934479890046102</v>
+      </c>
+      <c r="D11">
+        <v>0.87098430575866803</v>
+      </c>
+      <c r="E11">
+        <v>0.79774305555555602</v>
+      </c>
+      <c r="F11">
+        <v>0.81076388888888895</v>
+      </c>
+      <c r="G11">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="H11">
+        <v>0.790186125211506</v>
+      </c>
+      <c r="I11">
+        <v>0.80034275921165399</v>
+      </c>
+      <c r="J11">
+        <v>0.59568813380339902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1100</v>
+      </c>
+      <c r="C12">
+        <v>0.88016764322916696</v>
+      </c>
+      <c r="D12">
+        <v>0.87257554093872602</v>
+      </c>
+      <c r="E12">
+        <v>0.79253472222222199</v>
+      </c>
+      <c r="F12">
+        <v>0.80034722222222199</v>
+      </c>
+      <c r="G12">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="H12">
+        <v>0.78803418803418801</v>
+      </c>
+      <c r="I12">
+        <v>0.79414298018949203</v>
+      </c>
+      <c r="J12">
+        <v>0.58514087713434404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1200</v>
+      </c>
+      <c r="C13">
+        <v>0.88386140046296702</v>
+      </c>
+      <c r="D13">
+        <v>0.87719897772228705</v>
+      </c>
+      <c r="E13">
+        <v>0.80295138888888895</v>
+      </c>
+      <c r="F13">
+        <v>0.80902777777777801</v>
+      </c>
+      <c r="G13">
+        <v>0.796875</v>
+      </c>
+      <c r="H13">
+        <v>0.79931389365351602</v>
+      </c>
+      <c r="I13">
+        <v>0.80414150129421902</v>
+      </c>
+      <c r="J13">
+        <v>0.60594752562740894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1300</v>
+      </c>
+      <c r="C14">
+        <v>0.88153905044367198</v>
+      </c>
+      <c r="D14">
+        <v>0.87609715864016402</v>
+      </c>
+      <c r="E14">
+        <v>0.78993055555555602</v>
+      </c>
+      <c r="F14">
+        <v>0.80208333333333304</v>
+      </c>
+      <c r="G14">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="H14">
+        <v>0.78305084745762699</v>
+      </c>
+      <c r="I14">
+        <v>0.79245283018867896</v>
+      </c>
+      <c r="J14">
+        <v>0.58003246642119999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1400</v>
+      </c>
+      <c r="C15">
+        <v>0.87391945167824203</v>
+      </c>
+      <c r="D15">
+        <v>0.86607923667435205</v>
+      </c>
+      <c r="E15">
+        <v>0.796875</v>
+      </c>
+      <c r="F15">
+        <v>0.80729166666666696</v>
+      </c>
+      <c r="G15">
+        <v>0.78645833333333304</v>
+      </c>
+      <c r="H15">
+        <v>0.79081632653061196</v>
+      </c>
+      <c r="I15">
+        <v>0.79896907216494895</v>
+      </c>
+      <c r="J15">
+        <v>0.59387889395571403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1500</v>
+      </c>
+      <c r="C16">
+        <v>0.87911723572530998</v>
+      </c>
+      <c r="D16">
+        <v>0.87339564767614797</v>
+      </c>
+      <c r="E16">
+        <v>0.79340277777777801</v>
+      </c>
+      <c r="F16">
+        <v>0.80729166666666696</v>
+      </c>
+      <c r="G16">
+        <v>0.77951388888888895</v>
+      </c>
+      <c r="H16">
+        <v>0.78547297297297303</v>
+      </c>
+      <c r="I16">
+        <v>0.79623287671232901</v>
+      </c>
+      <c r="J16">
+        <v>0.58703207768541898</v>
       </c>
     </row>
   </sheetData>
@@ -9743,532 +10142,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>0.85181266878857798</v>
-      </c>
-      <c r="D2">
-        <v>0.84172647378369403</v>
-      </c>
-      <c r="E2">
-        <v>0.76996527777777801</v>
-      </c>
-      <c r="F2">
-        <v>0.77604166666666696</v>
-      </c>
-      <c r="G2">
-        <v>0.76388888888888895</v>
-      </c>
-      <c r="H2">
-        <v>0.76672384219554002</v>
-      </c>
-      <c r="I2">
-        <v>0.77135461604831701</v>
-      </c>
-      <c r="J2">
-        <v>0.53997043114648802</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <v>0.86539713541666596</v>
-      </c>
-      <c r="D3">
-        <v>0.86333467179162005</v>
-      </c>
-      <c r="E3">
-        <v>0.78125</v>
-      </c>
-      <c r="F3">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="G3">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="H3">
-        <v>0.77551020408163296</v>
-      </c>
-      <c r="I3">
-        <v>0.78350515463917503</v>
-      </c>
-      <c r="J3">
-        <v>0.56262211006330798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-      <c r="C4">
-        <v>0.87214415750385899</v>
-      </c>
-      <c r="D4">
-        <v>0.86606585618733301</v>
-      </c>
-      <c r="E4">
-        <v>0.78559027777777801</v>
-      </c>
-      <c r="F4">
-        <v>0.80208333333333304</v>
-      </c>
-      <c r="G4">
-        <v>0.76909722222222199</v>
-      </c>
-      <c r="H4">
-        <v>0.77647058823529402</v>
-      </c>
-      <c r="I4">
-        <v>0.78906917164816404</v>
-      </c>
-      <c r="J4">
-        <v>0.57149155545048003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>400</v>
-      </c>
-      <c r="C5">
-        <v>0.882529176311729</v>
-      </c>
-      <c r="D5">
-        <v>0.87956695949327501</v>
-      </c>
-      <c r="E5">
-        <v>0.80034722222222199</v>
-      </c>
-      <c r="F5">
-        <v>0.80208333333333304</v>
-      </c>
-      <c r="G5">
-        <v>0.79861111111111105</v>
-      </c>
-      <c r="H5">
-        <v>0.79930795847750902</v>
-      </c>
-      <c r="I5">
-        <v>0.80069324090121297</v>
-      </c>
-      <c r="J5">
-        <v>0.60069806556156002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>500</v>
-      </c>
-      <c r="C6">
-        <v>0.88003653067129395</v>
-      </c>
-      <c r="D6">
-        <v>0.86880182535679795</v>
-      </c>
-      <c r="E6">
-        <v>0.80208333333333304</v>
-      </c>
-      <c r="F6">
-        <v>0.8125</v>
-      </c>
-      <c r="G6">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="H6">
-        <v>0.79591836734693899</v>
-      </c>
-      <c r="I6">
-        <v>0.80412371134020599</v>
-      </c>
-      <c r="J6">
-        <v>0.60429782191984904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>600</v>
-      </c>
-      <c r="C7">
-        <v>0.87847222222222499</v>
-      </c>
-      <c r="D7">
-        <v>0.86566513663507305</v>
-      </c>
-      <c r="E7">
-        <v>0.79340277777777801</v>
-      </c>
-      <c r="F7">
-        <v>0.80555555555555602</v>
-      </c>
-      <c r="G7">
-        <v>0.78125</v>
-      </c>
-      <c r="H7">
-        <v>0.78644067796610195</v>
-      </c>
-      <c r="I7">
-        <v>0.79588336192109799</v>
-      </c>
-      <c r="J7">
-        <v>0.58697896302504604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>700</v>
-      </c>
-      <c r="C8">
-        <v>0.87998981240355301</v>
-      </c>
-      <c r="D8">
-        <v>0.87134975511702395</v>
-      </c>
-      <c r="E8">
-        <v>0.79427083333333304</v>
-      </c>
-      <c r="F8">
-        <v>0.80381944444444398</v>
-      </c>
-      <c r="G8">
-        <v>0.78472222222222199</v>
-      </c>
-      <c r="H8">
-        <v>0.78875638841567297</v>
-      </c>
-      <c r="I8">
-        <v>0.79621668099742005</v>
-      </c>
-      <c r="J8">
-        <v>0.58864901775065204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>800</v>
-      </c>
-      <c r="C9">
-        <v>0.878256715374231</v>
-      </c>
-      <c r="D9">
-        <v>0.866026498128463</v>
-      </c>
-      <c r="E9">
-        <v>0.79774305555555602</v>
-      </c>
-      <c r="F9">
-        <v>0.81597222222222199</v>
-      </c>
-      <c r="G9">
-        <v>0.77951388888888895</v>
-      </c>
-      <c r="H9">
-        <v>0.78726968174204404</v>
-      </c>
-      <c r="I9">
-        <v>0.80136402387041805</v>
-      </c>
-      <c r="J9">
-        <v>0.595882269155384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>900</v>
-      </c>
-      <c r="C10">
-        <v>0.87684009693287102</v>
-      </c>
-      <c r="D10">
-        <v>0.86992160858807199</v>
-      </c>
-      <c r="E10">
-        <v>0.796875</v>
-      </c>
-      <c r="F10">
-        <v>0.80381944444444398</v>
-      </c>
-      <c r="G10">
-        <v>0.78993055555555602</v>
-      </c>
-      <c r="H10">
-        <v>0.79280821917808197</v>
-      </c>
-      <c r="I10">
-        <v>0.79827586206896595</v>
-      </c>
-      <c r="J10">
-        <v>0.59380727584058102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1000</v>
-      </c>
-      <c r="C11">
-        <v>0.87934479890046102</v>
-      </c>
-      <c r="D11">
-        <v>0.87098430575866803</v>
-      </c>
-      <c r="E11">
-        <v>0.79774305555555602</v>
-      </c>
-      <c r="F11">
-        <v>0.81076388888888895</v>
-      </c>
-      <c r="G11">
-        <v>0.78472222222222199</v>
-      </c>
-      <c r="H11">
-        <v>0.790186125211506</v>
-      </c>
-      <c r="I11">
-        <v>0.80034275921165399</v>
-      </c>
-      <c r="J11">
-        <v>0.59568813380339902</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1100</v>
-      </c>
-      <c r="C12">
-        <v>0.88016764322916696</v>
-      </c>
-      <c r="D12">
-        <v>0.87257554093872602</v>
-      </c>
-      <c r="E12">
-        <v>0.79253472222222199</v>
-      </c>
-      <c r="F12">
-        <v>0.80034722222222199</v>
-      </c>
-      <c r="G12">
-        <v>0.78472222222222199</v>
-      </c>
-      <c r="H12">
-        <v>0.78803418803418801</v>
-      </c>
-      <c r="I12">
-        <v>0.79414298018949203</v>
-      </c>
-      <c r="J12">
-        <v>0.58514087713434404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1200</v>
-      </c>
-      <c r="C13">
-        <v>0.88386140046296702</v>
-      </c>
-      <c r="D13">
-        <v>0.87719897772228705</v>
-      </c>
-      <c r="E13">
-        <v>0.80295138888888895</v>
-      </c>
-      <c r="F13">
-        <v>0.80902777777777801</v>
-      </c>
-      <c r="G13">
-        <v>0.796875</v>
-      </c>
-      <c r="H13">
-        <v>0.79931389365351602</v>
-      </c>
-      <c r="I13">
-        <v>0.80414150129421902</v>
-      </c>
-      <c r="J13">
-        <v>0.60594752562740894</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>1300</v>
-      </c>
-      <c r="C14">
-        <v>0.88153905044367198</v>
-      </c>
-      <c r="D14">
-        <v>0.87609715864016402</v>
-      </c>
-      <c r="E14">
-        <v>0.78993055555555602</v>
-      </c>
-      <c r="F14">
-        <v>0.80208333333333304</v>
-      </c>
-      <c r="G14">
-        <v>0.77777777777777801</v>
-      </c>
-      <c r="H14">
-        <v>0.78305084745762699</v>
-      </c>
-      <c r="I14">
-        <v>0.79245283018867896</v>
-      </c>
-      <c r="J14">
-        <v>0.58003246642119999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1400</v>
-      </c>
-      <c r="C15">
-        <v>0.87391945167824203</v>
-      </c>
-      <c r="D15">
-        <v>0.86607923667435205</v>
-      </c>
-      <c r="E15">
-        <v>0.796875</v>
-      </c>
-      <c r="F15">
-        <v>0.80729166666666696</v>
-      </c>
-      <c r="G15">
-        <v>0.78645833333333304</v>
-      </c>
-      <c r="H15">
-        <v>0.79081632653061196</v>
-      </c>
-      <c r="I15">
-        <v>0.79896907216494895</v>
-      </c>
-      <c r="J15">
-        <v>0.59387889395571403</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1500</v>
-      </c>
-      <c r="C16">
-        <v>0.87911723572530998</v>
-      </c>
-      <c r="D16">
-        <v>0.87339564767614797</v>
-      </c>
-      <c r="E16">
-        <v>0.79340277777777801</v>
-      </c>
-      <c r="F16">
-        <v>0.80729166666666696</v>
-      </c>
-      <c r="G16">
-        <v>0.77951388888888895</v>
-      </c>
-      <c r="H16">
-        <v>0.78547297297297303</v>
-      </c>
-      <c r="I16">
-        <v>0.79623287671232901</v>
-      </c>
-      <c r="J16">
-        <v>0.58703207768541898</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L61"/>
   <sheetViews>
@@ -10284,36 +10157,36 @@
     <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -11536,7 +11409,7 @@
         <v>1.8579856963937844</v>
       </c>
       <c r="L35" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -11647,7 +11520,7 @@
         <v>1.3600411423279068</v>
       </c>
       <c r="L38" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -11902,7 +11775,7 @@
         <v>-3.1640344068030471E-2</v>
       </c>
       <c r="L45" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -12049,38 +11922,38 @@
         <v>6.9744527052152519E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="2" customFormat="1">
-      <c r="A50" s="2">
+    <row r="50" spans="1:12" s="1" customFormat="1">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>490</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>0.86369056230709995</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>0.84867078281037001</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>0.78038194444444398</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>0.78993055555555602</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>0.77083333333333304</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>0.77534433806796799</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>0.78250511027957104</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>0.56095699457081105</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <f t="shared" si="1"/>
         <v>0.8165503107461034</v>
       </c>
@@ -12229,7 +12102,7 @@
         <v>1.8421289433445551</v>
       </c>
       <c r="L54" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -12494,7 +12367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J61"/>
   <sheetViews>
@@ -12505,32 +12378,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14070,35 +13943,35 @@
         <v>1.3305951153632201E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="2" customFormat="1">
-      <c r="A50" s="2">
+    <row r="50" spans="1:10" s="1" customFormat="1">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>490</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>3.1322938844798101E-3</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>9.4537088493000503E-3</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>8.3936977455789704E-3</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>3.68284781868018E-3</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>1.8455114258219999E-2</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>1.3623345369849601E-2</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>6.2513240551369999E-3</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>1.6585575808660401E-2</v>
       </c>
     </row>
@@ -14458,6 +14331,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>490</v>
+      </c>
+      <c r="C2">
+        <v>0.88145616319444298</v>
+      </c>
+      <c r="D2">
+        <v>0.86798486675087405</v>
+      </c>
+      <c r="E2">
+        <v>0.80034722222222199</v>
+      </c>
+      <c r="F2">
+        <v>0.80902777777777801</v>
+      </c>
+      <c r="G2">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="H2">
+        <v>0.79522184300341303</v>
+      </c>
+      <c r="I2">
+        <v>0.80206540447504304</v>
+      </c>
+      <c r="J2">
+        <v>0.60078499202311597</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14472,36 +14422,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15559,38 +15509,38 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>340</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>0.85879328221450602</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>0.85156589888646295</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>0.77604166666666696</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>0.80381944444444398</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>0.74826388888888895</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <v>0.76151315789473695</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <v>0.78209459459459496</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <v>0.55293729104919098</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>21</v>
+      <c r="K35" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -16042,38 +15992,38 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>490</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>0.86806610484182001</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>0.86262692188620305</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>0.78385416666666696</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>0.78472222222222199</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>0.78298611111111105</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="1">
         <v>0.78336221837088404</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="1">
         <v>0.78404163052905496</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="1">
         <v>0.56770918889494204</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>23</v>
+      <c r="K50" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -16205,38 +16155,38 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>540</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>0.86339578510802595</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>0.85923701640098205</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>0.78559027777777801</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>0.78993055555555602</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="1">
         <v>0.78125</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="1">
         <v>0.78313253012048201</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>0.78651685393258397</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="1">
         <v>0.571202076583195</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>22</v>
+      <c r="K55" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -16400,38 +16350,38 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>600</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>0.86613106433256304</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>0.86550331495686805</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>0.77864583333333304</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>0.78125</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="1">
         <v>0.77604166666666696</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="1">
         <v>0.77720207253885998</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="1">
         <v>0.77922077922077904</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="1">
         <v>0.55729922557244305</v>
       </c>
-      <c r="K61" s="2" t="s">
-        <v>24</v>
+      <c r="K61" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -16454,32 +16404,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -18419,32 +18369,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -20384,32 +20334,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
